--- a/Projects/SANOFING/Data/Template.xlsx
+++ b/Projects/SANOFING/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -221,7 +221,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Minimum number of facings for each SKU per Segement (Indicate 0 if not in MSL)</t>
+          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
         </r>
       </text>
     </comment>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -765,12 +765,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">IBEX 200MG CACAP 25BL4 M36 T NG,IBEX 200MG+ CAPEM BL2X12 M36 NG</t>
@@ -828,13 +822,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -852,6 +839,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -1051,7 +1045,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1075,25 +1069,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1137,15 +1127,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1153,19 +1143,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1177,11 +1167,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1189,15 +1179,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1205,16 +1195,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1237,36 +1219,32 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1277,11 +1255,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1321,7 +1299,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1338,15 +1316,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1424,13 +1401,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,14 +1671,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1977,32 +1955,32 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="31.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="30" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2019,173 +1997,173 @@
         <v>32</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="26"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2210,25 +2188,25 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="38" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="38.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="16.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="38" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="39" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="36" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="38.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="37" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2258,7 +2236,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -2267,21 +2245,21 @@
       <c r="C3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="44" t="n">
+      <c r="D3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="44" t="n">
+      <c r="G3" s="42" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -2290,44 +2268,44 @@
       <c r="C4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="44" t="n">
+      <c r="E4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="44" t="n">
+      <c r="G4" s="42" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="44" t="n">
+      <c r="F5" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="44" t="n">
+      <c r="G5" s="42" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2336,45 +2314,45 @@
       <c r="C6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="44" t="n">
+      <c r="E6" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="44" t="n">
+      <c r="G6" s="42" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2404,14 +2382,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="33.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="27.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="45" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="45" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="47" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="33.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="29" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="44" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2426,118 +2404,118 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="0"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="0"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="0"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="0"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="0"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="0"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="55"/>
+      <c r="C11" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2561,27 +2539,27 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="56" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="56" width="16.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="56" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="57" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="53" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="53" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="54" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2589,31 +2567,31 @@
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="46" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2622,22 +2600,22 @@
       <c r="C3" s="21" t="n">
         <v>8901040371117</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="55" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="59" t="n">
+      <c r="F3" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2646,22 +2624,22 @@
       <c r="C4" s="21" t="n">
         <v>8901040217088</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="55" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="59" t="n">
+      <c r="F4" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2670,21 +2648,21 @@
       <c r="C5" s="21" t="n">
         <v>3582910062400</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="55" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="56" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2693,21 +2671,21 @@
       <c r="C6" s="21" t="n">
         <v>3582910032892</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="59" t="n">
+        <v>55</v>
+      </c>
+      <c r="F6" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="56" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -2716,21 +2694,21 @@
       <c r="C7" s="21" t="n">
         <v>3582910061397</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="59" t="n">
+        <v>55</v>
+      </c>
+      <c r="F7" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="56" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -2739,43 +2717,43 @@
       <c r="C8" s="21" t="n">
         <v>3558001902004</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="59" t="n">
+      <c r="G8" s="56" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="A9" s="47"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="A10" s="47"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
+      <c r="A11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="A12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="62"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="A13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFING/Data/Template.xlsx
+++ b/Projects/SANOFING/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -767,25 +767,7 @@
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">IBEX 200MG CACAP 25BL4 M36 T NG,IBEX 200MG+ CAPEM BL2X12 M36 NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8901040371117,8901040217088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910062400</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cough &amp; Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINATHIOL 2.5G/125ML SYR BTX1 SAF XM,RHINATHIOL 6.25G/+ SYR BT1 S3 M36 XE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910032892,3582910061397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3558001902004</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1056,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1228,22 +1210,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1401,13 +1367,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1671,13 +1637,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1955,17 +1921,17 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1979,6 +1945,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -2185,19 +2152,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="36" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="38.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="36" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="37" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2234,125 +2201,6 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2382,14 +2230,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="33.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="29" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="33.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="29" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2404,118 +2252,118 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="0"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="0"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="0"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="0"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="0"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="0"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="52"/>
+      <c r="C11" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2545,13 +2393,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="53" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="53" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="54" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="49" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="49" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="49" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="50" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2567,31 +2415,31 @@
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="42" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2600,22 +2448,22 @@
       <c r="C3" s="21" t="n">
         <v>8901040371117</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="51" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="56" t="n">
+      <c r="F3" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="56" t="n">
+      <c r="G3" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2624,22 +2472,22 @@
       <c r="C4" s="21" t="n">
         <v>8901040217088</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="51" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="56" t="n">
+      <c r="F4" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="56" t="n">
+      <c r="G4" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2648,21 +2496,21 @@
       <c r="C5" s="21" t="n">
         <v>3582910062400</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="51" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="56" t="n">
+      <c r="F5" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="56" t="n">
+      <c r="G5" s="52" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2671,21 +2519,21 @@
       <c r="C6" s="21" t="n">
         <v>3582910032892</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="56" t="n">
+        <v>52</v>
+      </c>
+      <c r="F6" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="56" t="n">
+      <c r="G6" s="52" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -2694,21 +2542,21 @@
       <c r="C7" s="21" t="n">
         <v>3582910061397</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="56" t="n">
+        <v>52</v>
+      </c>
+      <c r="F7" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="56" t="n">
+      <c r="G7" s="52" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -2717,43 +2565,43 @@
       <c r="C8" s="21" t="n">
         <v>3558001902004</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="51" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="56" t="n">
+      <c r="F8" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="56" t="n">
+      <c r="G8" s="52" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="A9" s="43"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="A10" s="43"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="A11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="A12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="A13" s="55"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Projects/SANOFING/Data/Template.xlsx
+++ b/Projects/SANOFING/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="51">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">Up Market Pharmacy</t>
   </si>
   <si>
-    <t xml:space="preserve">IBEX 200MG CACAP 25BL4 M36 T NG</t>
+    <t xml:space="preserve">IBEX 200MG+ CAPEM BL2X12 M36 NG</t>
   </si>
   <si>
     <t xml:space="preserve">Ibex</t>
@@ -731,9 +731,6 @@
     <t xml:space="preserve">Pain</t>
   </si>
   <si>
-    <t xml:space="preserve">IBEX 200MG+ CAPEM BL2X12 M36 NG</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESSENTIALE FORTE 300MG CAP BL5X10 M24 XE</t>
   </si>
   <si>
@@ -749,7 +746,7 @@
     <t xml:space="preserve">Rhinathiol</t>
   </si>
   <si>
-    <t xml:space="preserve">Cough &amp; Cold </t>
+    <t xml:space="preserve">Cough &amp; Cold</t>
   </si>
   <si>
     <t xml:space="preserve">RHINATHIOL 6.25G/+ SYR BT1 S3 M36 XE</t>
@@ -765,9 +762,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough &amp; Cold</t>
   </si>
 </sst>
 </file>
@@ -780,7 +774,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -860,12 +854,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -930,13 +918,25 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,7 +958,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -988,19 +988,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1056,7 +1050,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1137,15 +1131,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1153,51 +1143,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1213,72 +1183,60 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1329,7 +1287,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1361,20 +1319,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0404858299595"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9311740890688"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,22 +1586,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1681,224 +1638,137 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <v>8901040371117</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="13" t="n">
+        <v>8901040217088</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="F3" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="n">
-        <v>8901040217088</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="13" t="n">
+        <v>3582910062400</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <v>3582910062400</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13" t="n">
+        <v>3582910032892</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <v>3582910061397</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="21" t="n">
-        <v>3582910032892</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="21" t="n">
-        <v>3582910061397</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="C7" s="13" t="n">
+        <v>3558001902004</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="21" t="n">
-        <v>3558001902004</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
-      <c r="B12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-    </row>
+      <c r="F7" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048561" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -1919,28 +1789,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="23" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="33.2995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="23" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -1958,7 +1828,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -1969,169 +1839,135 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="B3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>8901040217088</v>
+      </c>
+      <c r="F3" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="B4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>3582910062400</v>
+      </c>
+      <c r="F4" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="B5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>3582910032892</v>
+      </c>
+      <c r="F5" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="B6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>3582910061397</v>
+      </c>
+      <c r="F6" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-    </row>
+      <c r="B7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>3558001902004</v>
+      </c>
+      <c r="F7" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -2154,26 +1990,26 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="36" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="39.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="37" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="30" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="40.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="30" width="17.6234817813765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="31" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2222,22 +2058,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="29" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="30.6072874493927"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="34.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="23.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="28.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="19.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="23" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="34" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2252,119 +2088,43 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="48"/>
-    </row>
+    <row r="1048562" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -2385,29 +2145,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="49" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="49" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="49" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="50" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="45.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="17.6234817813765"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="37" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="38" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2415,194 +2175,174 @@
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="36" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+    <row r="3" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <v>8901040371117</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="41" t="n">
+        <v>8901040217088</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="52" t="n">
+      <c r="F3" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="n">
-        <v>8901040217088</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="C4" s="41" t="n">
+        <v>3582910062400</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <v>3582910062400</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="C5" s="41" t="n">
+        <v>3582910032892</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="41" t="n">
+        <v>3582910061397</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="21" t="n">
-        <v>3582910032892</v>
-      </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="F6" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="21" t="n">
-        <v>3582910061397</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="C7" s="41" t="n">
+        <v>3558001902004</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="21" t="n">
-        <v>3558001902004</v>
-      </c>
-      <c r="D8" s="51" t="s">
+      <c r="E7" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="55"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-    </row>
+      <c r="F7" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048549" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
